--- a/assets/assets/documents/pmoptm_template.xlsx
+++ b/assets/assets/documents/pmoptm_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirza\Projects\silatbapanting\assets\documents_foropen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE209155-2524-4EE6-BBD1-175987CB1EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24946BA-EA33-4F98-9753-BB870F4D1073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{7D9F8B4B-A1A1-45CA-98C4-96FCC41962A8}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
-    <t xml:space="preserve">  IDENTITAS PESERTA POSBINDU</t>
-  </si>
-  <si>
     <t>NIK</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  IDENTITAS</t>
   </si>
 </sst>
 </file>
@@ -620,7 +620,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +642,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="6"/>
@@ -654,10 +654,10 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="10"/>
@@ -666,7 +666,7 @@
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
@@ -676,40 +676,40 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="H3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="L3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -729,43 +729,43 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
